--- a/桃太郎最強伝説/桃太郎最強伝説/Book2.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book2.xlsx
@@ -90,7 +90,557 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="77">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -425,7 +975,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="AW30" sqref="AW30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2201,34 +2751,34 @@
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="1">
         <v>0</v>
@@ -2932,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="AN15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>0</v>
@@ -3102,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="AN16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>0</v>
@@ -3272,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="AN17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>0</v>
@@ -3442,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="AN18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>0</v>
@@ -3543,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
         <v>1</v>
@@ -3612,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="AN19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>0</v>
@@ -3713,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
@@ -3782,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="AN20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>0</v>
@@ -3883,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
@@ -3952,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="AN21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>0</v>
@@ -4053,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>1</v>
@@ -4122,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="AN22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>0</v>
@@ -4223,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
         <v>1</v>
@@ -4292,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="AN23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>0</v>
@@ -4393,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
         <v>1</v>
@@ -4563,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
         <v>1</v>
@@ -4733,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>1</v>
@@ -4903,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>1</v>
@@ -5243,28 +5793,28 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
@@ -5291,22 +5841,22 @@
         <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="1">
         <v>0</v>
@@ -5413,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>1</v>
@@ -5479,19 +6029,19 @@
         <v>1</v>
       </c>
       <c r="AM30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="1">
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="1">
         <v>1</v>
@@ -5583,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <v>1</v>
@@ -5658,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="1">
         <v>1</v>
@@ -5753,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
         <v>1</v>
@@ -5828,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="1">
         <v>1</v>
@@ -5923,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
         <v>1</v>
@@ -5998,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="1">
         <v>1</v>
@@ -6093,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
         <v>1</v>
@@ -6168,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="1">
         <v>1</v>
@@ -6263,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>1</v>
@@ -6338,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="1">
         <v>1</v>
@@ -6508,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="1">
         <v>1</v>
@@ -6678,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="1">
         <v>1</v>
@@ -6848,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="1">
         <v>1</v>
@@ -7018,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="1">
         <v>1</v>
@@ -7188,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="1">
         <v>1</v>
@@ -7358,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="1">
         <v>1</v>
@@ -7492,43 +8042,43 @@
         <v>0</v>
       </c>
       <c r="AD42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="1">
         <v>1</v>
@@ -9956,31 +10506,31 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BD56">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:AT46">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:AR46">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:AR46">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
